--- a/CP05MOAS-GL379/Omaha_Cal_Info_CP05MOAS-GL379_00002.xlsx
+++ b/CP05MOAS-GL379/Omaha_Cal_Info_CP05MOAS-GL379_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP05MOAS-GL379\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1160" windowWidth="23060" windowHeight="8140" tabRatio="377"/>
+    <workbookView xWindow="1320" yWindow="1155" windowWidth="23055" windowHeight="8145" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$78</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$350</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -809,19 +814,19 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -869,7 +874,9 @@
       <c r="D2" s="24">
         <v>42133</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10">
+        <v>6.25E-2</v>
+      </c>
       <c r="F2" s="24">
         <v>42187</v>
       </c>
@@ -913,19 +920,19 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -974,7 +981,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1010,7 @@
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -1032,7 +1039,7 @@
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +1068,7 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1078,7 +1085,7 @@
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1">
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
@@ -1102,7 +1109,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1">
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1133,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1">
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1150,7 +1157,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1">
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1181,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:15" s="6" customFormat="1">
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1186,7 +1193,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:15" s="6" customFormat="1">
+    <row r="12" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1213,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:15" s="6" customFormat="1">
+    <row r="13" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1218,7 +1225,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:15" s="6" customFormat="1">
+    <row r="14" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1245,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1">
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1250,7 +1257,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:15" s="6" customFormat="1">
+    <row r="16" spans="1:15" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1277,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" s="6" customFormat="1">
+    <row r="17" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1282,7 +1289,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" s="6" customFormat="1">
+    <row r="18" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1309,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" s="6" customFormat="1">
+    <row r="19" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
